--- a/OverheadHoistBuffer_PTI/BCWinForm/Config/PTI_TEST_HL/CSTTranSchedule.xlsx
+++ b/OverheadHoistBuffer_PTI/BCWinForm/Config/PTI_TEST_HL/CSTTranSchedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAF3CE2-4351-A144-B56D-CCCE3C6620E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
@@ -18,9 +19,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+  <si>
+    <t>2POHT100OHB2P1</t>
+  </si>
+  <si>
+    <t>2POHT100OHB2P2</t>
+  </si>
+  <si>
+    <t>DEV110301</t>
+  </si>
+  <si>
+    <t>DEV110302</t>
+  </si>
+  <si>
+    <t>PLP110201</t>
+  </si>
+  <si>
+    <t>PLP110101</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,9 +62,8 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,9 +88,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -340,39 +361,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="25.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
-        <v>20316</v>
-      </c>
-      <c r="C1" s="1">
-        <v>20311</v>
-      </c>
-      <c r="D1" s="1">
-        <v>20411</v>
-      </c>
-      <c r="E1" s="1">
-        <v>20416</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>20316</v>
+    <row r="1" spans="1:7" ht="16">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -386,10 +418,16 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>20311</v>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -403,10 +441,16 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>20411</v>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -420,10 +464,16 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>20416</v>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -437,9 +487,61 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A102">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A102">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
